--- a/_Out/NFDataCfg/Excel_Ini/DescData.xlsx
+++ b/_Out/NFDataCfg/Excel_Ini/DescData.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherish\Desktop\git\nf\develop\_Out\Server\NFDataCfg\Excel_Ini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Desktop\NoahGameFrame\_Out\NFDataCfg\Excel_Ini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27520" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="27518" windowHeight="17543"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -100,13 +100,16 @@
   <si>
     <t>Upload</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Force</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -321,7 +324,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
@@ -665,41 +668,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.6328125" customWidth="1"/>
-    <col min="2" max="3" width="9.36328125" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" customWidth="1"/>
+    <col min="2" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.46484375" customWidth="1"/>
     <col min="5" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="16.453125" customWidth="1"/>
-    <col min="8" max="8" width="20.1796875" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" customWidth="1"/>
-    <col min="10" max="10" width="27.6328125" customWidth="1"/>
-    <col min="11" max="11" width="17.6328125" customWidth="1"/>
-    <col min="12" max="12" width="32.6328125" customWidth="1"/>
-    <col min="13" max="14" width="20.1796875" customWidth="1"/>
+    <col min="7" max="7" width="16.46484375" customWidth="1"/>
+    <col min="8" max="8" width="20.19921875" customWidth="1"/>
+    <col min="9" max="9" width="11.59765625" customWidth="1"/>
+    <col min="10" max="10" width="27.59765625" customWidth="1"/>
+    <col min="11" max="11" width="17.59765625" customWidth="1"/>
+    <col min="12" max="12" width="32.59765625" customWidth="1"/>
+    <col min="13" max="14" width="20.19921875" customWidth="1"/>
     <col min="15" max="15" width="24" customWidth="1"/>
-    <col min="16" max="17" width="21.453125" customWidth="1"/>
-    <col min="18" max="18" width="15.1796875" customWidth="1"/>
+    <col min="16" max="17" width="21.46484375" customWidth="1"/>
+    <col min="18" max="18" width="15.19921875" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="16.453125" customWidth="1"/>
+    <col min="20" max="20" width="16.46484375" customWidth="1"/>
     <col min="21" max="21" width="19" customWidth="1"/>
-    <col min="22" max="22" width="15.1796875" customWidth="1"/>
-    <col min="23" max="23" width="20.1796875" customWidth="1"/>
-    <col min="24" max="24" width="11.6328125" customWidth="1"/>
-    <col min="25" max="25" width="20.1796875" customWidth="1"/>
-    <col min="26" max="27" width="17.6328125" customWidth="1"/>
+    <col min="22" max="22" width="15.19921875" customWidth="1"/>
+    <col min="23" max="23" width="20.19921875" customWidth="1"/>
+    <col min="24" max="24" width="11.59765625" customWidth="1"/>
+    <col min="25" max="25" width="20.19921875" customWidth="1"/>
+    <col min="26" max="27" width="17.59765625" customWidth="1"/>
     <col min="28" max="28" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="27">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -725,7 +728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -751,7 +754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="2" customFormat="1">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -777,7 +780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="2" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
@@ -803,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="2" customFormat="1">
       <c r="A5" s="7" t="s">
         <v>12</v>
       </c>
@@ -829,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="2" customFormat="1">
       <c r="A6" s="7" t="s">
         <v>13</v>
       </c>
@@ -855,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="3" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -881,267 +884,293 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="3" customFormat="1">
       <c r="A8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="3" customFormat="1">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="4" customFormat="1" ht="28" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="B9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="27">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H10" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="13"/>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="13"/>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8">
       <c r="A13" s="13"/>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="13"/>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="13"/>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="13"/>
       <c r="D16" s="13"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="13"/>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="13"/>
       <c r="D18" s="13"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="13"/>
       <c r="D19" s="13"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="13"/>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="13"/>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="13"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="13"/>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="13"/>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="13"/>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="13"/>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="13"/>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="13"/>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="13"/>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="13"/>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="13"/>
       <c r="D31" s="13"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="13"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="13"/>
       <c r="D33" s="13"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="13"/>
       <c r="D34" s="13"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="13"/>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="13"/>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="13"/>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="13"/>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="13"/>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="13"/>
       <c r="D40" s="13"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="13"/>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="13"/>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="13"/>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="13"/>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="13"/>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="13"/>
       <c r="D46" s="13"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="13"/>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="13"/>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="13"/>
       <c r="D49" s="13"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="13"/>
       <c r="D50" s="13"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="13"/>
       <c r="D51" s="13"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="13"/>
       <c r="D52" s="13"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="13"/>
       <c r="D53" s="13"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="13"/>
       <c r="D54" s="13"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="13"/>
       <c r="D55" s="13"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="13"/>
       <c r="D56" s="13"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="13"/>
       <c r="D57" s="13"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="13"/>
       <c r="D58" s="13"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="13"/>
       <c r="D59" s="13"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="13"/>
       <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="13"/>
+      <c r="D61" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:H6 B7:J8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A6:A9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:H6 B7:J9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
